--- a/Data/Input/Notifications.xlsx
+++ b/Data/Input/Notifications.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jordone\UiPathProjects2022\Scenario4And6.Performer\Data\Input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SYS-QAUPBOT2\.nuget\packages\scenario4and6.performer\9.2.0\lib\net45\Data\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54C1659E-C755-4086-AF83-28BA795A488E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{947399FE-210F-46C9-9ECB-ECBB265D4112}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="26010" windowHeight="20160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -737,10 +737,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -917,8 +917,8 @@
       <c r="A10" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="16" t="s">
-        <v>34</v>
+      <c r="B10" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="C10" s="17"/>
       <c r="D10" s="3" t="s">
@@ -932,9 +932,9 @@
       </c>
       <c r="G10" s="18"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B11" s="1" t="s">
-        <v>20</v>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B13" s="16" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Input/Notifications.xlsx
+++ b/Data/Input/Notifications.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SYS-QAUPBOT2\.nuget\packages\scenario4and6.performer\9.2.0\lib\net45\Data\Input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SYS-QAUPBOT2\.nuget\packages\scenario4and6.performer\3.5.1\lib\net45\Data\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{947399FE-210F-46C9-9ECB-ECBB265D4112}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6167CA19-9352-4839-A4CB-9C0B055A694D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="26010" windowHeight="20160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -737,10 +737,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -917,8 +917,8 @@
       <c r="A10" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>20</v>
+      <c r="B10" s="16" t="s">
+        <v>34</v>
       </c>
       <c r="C10" s="17"/>
       <c r="D10" s="3" t="s">
@@ -932,9 +932,9 @@
       </c>
       <c r="G10" s="18"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B13" s="16" t="s">
-        <v>34</v>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B11" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
